--- a/scripts/obs.xlsx
+++ b/scripts/obs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="267">
   <si>
     <t>group</t>
   </si>
@@ -148,7 +148,97 @@
     <t>gwle_ddown_shallow_WestSide</t>
   </si>
   <si>
-    <t>hds</t>
+    <t>gwle_roll_deep_aguacal</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_bay</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_cityson</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_eastside</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_highlands</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_kenwood</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_southcent</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_vom</t>
+  </si>
+  <si>
+    <t>gwle_roll_deep_westside</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_aguacal</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_cityson</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_eastside</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_highlands</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_kenwood</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_southcent</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_vom</t>
+  </si>
+  <si>
+    <t>gwle_roll_shallow_westside</t>
+  </si>
+  <si>
+    <t>hds_NON_aguacal</t>
+  </si>
+  <si>
+    <t>hds_NON_cityson</t>
+  </si>
+  <si>
+    <t>hds_NON_eastside</t>
+  </si>
+  <si>
+    <t>hds_NON_highlands</t>
+  </si>
+  <si>
+    <t>hds_NON_kenwood</t>
+  </si>
+  <si>
+    <t>hds_NON_southcent</t>
+  </si>
+  <si>
+    <t>hds_NON_vom</t>
+  </si>
+  <si>
+    <t>hds_NON_westside</t>
+  </si>
+  <si>
+    <t>hds_RMP_aguacal</t>
+  </si>
+  <si>
+    <t>hds_RMP_cityson</t>
+  </si>
+  <si>
+    <t>hds_RMP_eastside</t>
+  </si>
+  <si>
+    <t>hds_RMP_southcent</t>
+  </si>
+  <si>
+    <t>hds_RMP_vom</t>
+  </si>
+  <si>
+    <t>hds_RMP_westside</t>
   </si>
   <si>
     <t>ken_raw</t>
@@ -157,13 +247,25 @@
     <t>kenwood_log</t>
   </si>
   <si>
+    <t>sfr_fdc_aguacal</t>
+  </si>
+  <si>
+    <t>sfr_fdc_kenwood</t>
+  </si>
+  <si>
+    <t>sfr_wy_min_flow_agucal</t>
+  </si>
+  <si>
+    <t>sfr_wy_min_flow_kenwood</t>
+  </si>
+  <si>
     <t xml:space="preserve"> -999 to 7.89812</t>
   </si>
   <si>
     <t xml:space="preserve"> -999 to 7.90899E+07</t>
   </si>
   <si>
-    <t>8.45818E-11 to 1.11093E+09</t>
+    <t>5.52019E-11 to 9.38509E+09</t>
   </si>
   <si>
     <t>-48.3122 to 106.687</t>
@@ -268,7 +370,97 @@
     <t>-6.4746 to 14.8298</t>
   </si>
   <si>
-    <t>-9999 to 429.133</t>
+    <t>40.1549 to 95.2288</t>
+  </si>
+  <si>
+    <t>-702.658 to -140.975</t>
+  </si>
+  <si>
+    <t>41.4773 to 85.0917</t>
+  </si>
+  <si>
+    <t>-128.982 to 46.9195</t>
+  </si>
+  <si>
+    <t>117.888 to 372.955</t>
+  </si>
+  <si>
+    <t>331.599 to 432.914</t>
+  </si>
+  <si>
+    <t>-11.0072 to 31.3918</t>
+  </si>
+  <si>
+    <t>248.289 to 509.928</t>
+  </si>
+  <si>
+    <t>23.5328 to 89.7857</t>
+  </si>
+  <si>
+    <t>32.2462 to 91.2956</t>
+  </si>
+  <si>
+    <t>41.2827 to 104.248</t>
+  </si>
+  <si>
+    <t>19.2449 to 44.6454</t>
+  </si>
+  <si>
+    <t>118.396 to 327.614</t>
+  </si>
+  <si>
+    <t>317.266 to 449.241</t>
+  </si>
+  <si>
+    <t>-23.2099 to 29.1686</t>
+  </si>
+  <si>
+    <t>126.798 to 413.9</t>
+  </si>
+  <si>
+    <t>-44.3557 to 65.3617</t>
+  </si>
+  <si>
+    <t>37.1854 to 91.8886</t>
+  </si>
+  <si>
+    <t>38.4463 to 111.141</t>
+  </si>
+  <si>
+    <t>-129.612 to 47.4788</t>
+  </si>
+  <si>
+    <t>116.359 to 265.847</t>
+  </si>
+  <si>
+    <t>316.767 to 446.321</t>
+  </si>
+  <si>
+    <t>-18.7978 to 35.0979</t>
+  </si>
+  <si>
+    <t>151.569 to 508.22</t>
+  </si>
+  <si>
+    <t>-48.6066 to 55.686</t>
+  </si>
+  <si>
+    <t>42.5883 to 88.4661</t>
+  </si>
+  <si>
+    <t>56.0384 to 57.7415</t>
+  </si>
+  <si>
+    <t>8.93451 to 29.9961</t>
+  </si>
+  <si>
+    <t>-25.0159 to 29.9122</t>
+  </si>
+  <si>
+    <t>260.779 to 390.384</t>
+  </si>
+  <si>
+    <t>-31.044 to 57.6798</t>
   </si>
   <si>
     <t xml:space="preserve"> -999 to 1.8862E+07</t>
@@ -277,7 +469,19 @@
     <t xml:space="preserve"> -999 to 7.27559</t>
   </si>
   <si>
-    <t xml:space="preserve">    0 to  4000</t>
+    <t>4.63075 to 8.5358</t>
+  </si>
+  <si>
+    <t>1.93651 to 7.36043</t>
+  </si>
+  <si>
+    <t>4.36429 to 7.60585</t>
+  </si>
+  <si>
+    <t>1.93651 to 4.53205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0 to 0.197426</t>
   </si>
   <si>
     <t xml:space="preserve">    0</t>
@@ -331,10 +535,16 @@
     <t>0.000680272</t>
   </si>
   <si>
-    <t xml:space="preserve">    0 to     1</t>
-  </si>
-  <si>
-    <t>0.00025</t>
+    <t xml:space="preserve">    1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.5 to     1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0 to 0.257648</t>
+  </si>
+  <si>
+    <t>5.06518 to 7.89812</t>
   </si>
   <si>
     <t>NA</t>
@@ -388,10 +598,13 @@
     <t xml:space="preserve"> 1470</t>
   </si>
   <si>
-    <t xml:space="preserve">    1</t>
-  </si>
-  <si>
-    <t>0.00316531 to 0.0129098</t>
+    <t xml:space="preserve">    1 to     2</t>
+  </si>
+  <si>
+    <t>3.88126 to 7.27559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100 to 261.562</t>
   </si>
   <si>
     <t>1181.03 to 2.06869E+07</t>
@@ -496,10 +709,112 @@
     <t>9912.45 to 6.917E+08</t>
   </si>
   <si>
-    <t>0.233028 to 494144</t>
-  </si>
-  <si>
-    <t>0.00343615 to 0.0129098</t>
+    <t>1.0501 to 2.49036</t>
+  </si>
+  <si>
+    <t>0.142317 to 0.709345</t>
+  </si>
+  <si>
+    <t>1.1752 to 2.41096</t>
+  </si>
+  <si>
+    <t>0.775304 to 74.719</t>
+  </si>
+  <si>
+    <t>0.268129 to 0.84826</t>
+  </si>
+  <si>
+    <t>0.230993 to 0.30157</t>
+  </si>
+  <si>
+    <t>3.18554 to 1870.82</t>
+  </si>
+  <si>
+    <t>0.196106 to 0.402756</t>
+  </si>
+  <si>
+    <t>1.11376 to 4.2494</t>
+  </si>
+  <si>
+    <t>1.09534 to 3.10114</t>
+  </si>
+  <si>
+    <t>0.95925 to 2.42232</t>
+  </si>
+  <si>
+    <t>2.23987 to 5.19618</t>
+  </si>
+  <si>
+    <t>0.305237 to 0.844622</t>
+  </si>
+  <si>
+    <t>0.222598 to 0.315193</t>
+  </si>
+  <si>
+    <t>3.42835 to 1949.38</t>
+  </si>
+  <si>
+    <t>0.241604 to 0.788656</t>
+  </si>
+  <si>
+    <t>1.52995 to 75.6255</t>
+  </si>
+  <si>
+    <t>1.31446 to 4.35303</t>
+  </si>
+  <si>
+    <t>0.925709 to 5.20206</t>
+  </si>
+  <si>
+    <t>1.54307 to 490.83</t>
+  </si>
+  <si>
+    <t>0.376157 to 0.859408</t>
+  </si>
+  <si>
+    <t>0.224054 to 0.622559</t>
+  </si>
+  <si>
+    <t>2.84917 to 3604.05</t>
+  </si>
+  <si>
+    <t>0.25985 to 0.80561</t>
+  </si>
+  <si>
+    <t>1.82148 to 301.068</t>
+  </si>
+  <si>
+    <t>1.13038 to 4.11055</t>
+  </si>
+  <si>
+    <t>1.73186 to 1.78449</t>
+  </si>
+  <si>
+    <t>3.33376 to 11.1926</t>
+  </si>
+  <si>
+    <t>3.34312 to 513.004</t>
+  </si>
+  <si>
+    <t>0.256158 to 0.383466</t>
+  </si>
+  <si>
+    <t>1.73371 to 7.63983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  100 to 200.425</t>
+  </si>
+  <si>
+    <t>11.7154 to 21.5948</t>
+  </si>
+  <si>
+    <t>13.5862 to 51.6392</t>
+  </si>
+  <si>
+    <t>13.1478 to 22.9133</t>
+  </si>
+  <si>
+    <t>22.0651 to 51.6392</t>
   </si>
 </sst>
 </file>
@@ -857,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -891,7 +1206,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>346</v>
@@ -900,13 +1215,13 @@
         <v>240</v>
       </c>
       <c r="E2" t="s">
-        <v>87</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="G2" t="s">
-        <v>125</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -914,7 +1229,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -923,13 +1238,13 @@
         <v>586</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -937,22 +1252,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>765</v>
+        <v>816</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -960,7 +1275,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>1260</v>
@@ -969,13 +1284,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -983,7 +1298,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>105</v>
@@ -992,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1006,7 +1321,7 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>840</v>
@@ -1015,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1029,7 +1344,7 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>1050</v>
@@ -1038,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1052,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="C9">
         <v>2625</v>
@@ -1061,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="F9" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1075,7 +1390,7 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="C10">
         <v>420</v>
@@ -1084,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="G10" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1098,7 +1413,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C11">
         <v>1365</v>
@@ -1107,13 +1422,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>132</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1121,7 +1436,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="C12">
         <v>735</v>
@@ -1130,13 +1445,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G12" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1144,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="C13">
         <v>525</v>
@@ -1153,13 +1468,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="G13" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1167,7 +1482,7 @@
         <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C14">
         <v>1785</v>
@@ -1176,13 +1491,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G14" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1190,7 +1505,7 @@
         <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="C15">
         <v>2205</v>
@@ -1199,13 +1514,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1213,7 +1528,7 @@
         <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="C16">
         <v>210</v>
@@ -1222,13 +1537,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="F16" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="G16" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1236,7 +1551,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="C17">
         <v>945</v>
@@ -1245,13 +1560,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="F17" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1259,7 +1574,7 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="C18">
         <v>1680</v>
@@ -1268,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1282,7 +1597,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>1995</v>
@@ -1291,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>211</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1305,7 +1620,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C20">
         <v>1785</v>
@@ -1314,13 +1629,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1328,7 +1643,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="C21">
         <v>1470</v>
@@ -1337,13 +1652,13 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="F21" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1351,7 +1666,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C22">
         <v>1260</v>
@@ -1360,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>108</v>
+        <v>178</v>
       </c>
       <c r="G22" t="s">
-        <v>143</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1374,7 +1689,7 @@
         <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C23">
         <v>105</v>
@@ -1383,13 +1698,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="F23" t="s">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>144</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1397,7 +1712,7 @@
         <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C24">
         <v>840</v>
@@ -1406,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>91</v>
+        <v>159</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="G24" t="s">
-        <v>145</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1420,7 +1735,7 @@
         <v>30</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="C25">
         <v>1050</v>
@@ -1429,13 +1744,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="F25" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="G25" t="s">
-        <v>146</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1443,7 +1758,7 @@
         <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="C26">
         <v>2625</v>
@@ -1452,13 +1767,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="F26" t="s">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="G26" t="s">
-        <v>147</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1466,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>106</v>
       </c>
       <c r="C27">
         <v>420</v>
@@ -1475,13 +1790,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>183</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1489,7 +1804,7 @@
         <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C28">
         <v>1365</v>
@@ -1498,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="F28" t="s">
-        <v>114</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1512,7 +1827,7 @@
         <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C29">
         <v>735</v>
@@ -1521,13 +1836,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="F29" t="s">
-        <v>115</v>
+        <v>185</v>
       </c>
       <c r="G29" t="s">
-        <v>150</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1535,7 +1850,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C30">
         <v>525</v>
@@ -1544,13 +1859,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="F30" t="s">
-        <v>116</v>
+        <v>186</v>
       </c>
       <c r="G30" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1558,7 +1873,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
       <c r="C31">
         <v>1785</v>
@@ -1567,13 +1882,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
-        <v>152</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1581,7 +1896,7 @@
         <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="C32">
         <v>2205</v>
@@ -1590,13 +1905,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="F32" t="s">
-        <v>118</v>
+        <v>188</v>
       </c>
       <c r="G32" t="s">
-        <v>153</v>
+        <v>224</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1604,7 +1919,7 @@
         <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C33">
         <v>210</v>
@@ -1613,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="F33" t="s">
-        <v>119</v>
+        <v>189</v>
       </c>
       <c r="G33" t="s">
-        <v>154</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1627,7 +1942,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="C34">
         <v>945</v>
@@ -1636,13 +1951,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="F34" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="G34" t="s">
-        <v>155</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1650,7 +1965,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="C35">
         <v>1680</v>
@@ -1659,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>191</v>
       </c>
       <c r="G35" t="s">
-        <v>156</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1673,7 +1988,7 @@
         <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="C36">
         <v>1995</v>
@@ -1682,13 +1997,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="F36" t="s">
-        <v>122</v>
+        <v>192</v>
       </c>
       <c r="G36" t="s">
-        <v>157</v>
+        <v>228</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1696,7 +2011,7 @@
         <v>42</v>
       </c>
       <c r="B37" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="C37">
         <v>1785</v>
@@ -1705,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="F37" t="s">
-        <v>117</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>158</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1719,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>1470</v>
@@ -1728,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="F38" t="s">
-        <v>123</v>
+        <v>193</v>
       </c>
       <c r="G38" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1742,22 +2057,22 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="C39">
-        <v>4351</v>
+        <v>72</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="F39" t="s">
-        <v>124</v>
+        <v>173</v>
       </c>
       <c r="G39" t="s">
-        <v>160</v>
+        <v>231</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1765,22 +2080,22 @@
         <v>45</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D40">
-        <v>586</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>88</v>
+        <v>173</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1788,22 +2103,804 @@
         <v>46</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C41">
+        <v>48</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>173</v>
+      </c>
+      <c r="F41" t="s">
+        <v>173</v>
+      </c>
+      <c r="G41" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F42" t="s">
+        <v>173</v>
+      </c>
+      <c r="G42" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C43">
+        <v>150</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" t="s">
+        <v>173</v>
+      </c>
+      <c r="G44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+      <c r="C45">
+        <v>78</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>173</v>
+      </c>
+      <c r="F45" t="s">
+        <v>173</v>
+      </c>
+      <c r="G45" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C46">
+        <v>42</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>173</v>
+      </c>
+      <c r="F46" t="s">
+        <v>173</v>
+      </c>
+      <c r="G46" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" t="s">
+        <v>173</v>
+      </c>
+      <c r="G47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48">
+        <v>102</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" t="s">
+        <v>173</v>
+      </c>
+      <c r="G48" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49">
+        <v>126</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50">
+        <v>12</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>173</v>
+      </c>
+      <c r="F50" t="s">
+        <v>173</v>
+      </c>
+      <c r="G50" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+      <c r="F51" t="s">
+        <v>173</v>
+      </c>
+      <c r="G51" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52">
+        <v>96</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>173</v>
+      </c>
+      <c r="F52" t="s">
+        <v>173</v>
+      </c>
+      <c r="G52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53">
+        <v>114</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>173</v>
+      </c>
+      <c r="F53" t="s">
+        <v>173</v>
+      </c>
+      <c r="G53" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>59</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54">
+        <v>102</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>173</v>
+      </c>
+      <c r="F54" t="s">
+        <v>173</v>
+      </c>
+      <c r="G54" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+      <c r="B55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55">
+        <v>84</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55" t="s">
+        <v>173</v>
+      </c>
+      <c r="G55" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+      <c r="C56">
+        <v>1005</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>174</v>
+      </c>
+      <c r="F56" t="s">
+        <v>194</v>
+      </c>
+      <c r="G56" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57">
+        <v>829</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>174</v>
+      </c>
+      <c r="F57" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58">
+        <v>330</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>174</v>
+      </c>
+      <c r="F58" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" t="s">
+        <v>138</v>
+      </c>
+      <c r="C59">
+        <v>736</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>173</v>
+      </c>
+      <c r="F59" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>139</v>
+      </c>
+      <c r="C60">
+        <v>457</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" t="s">
+        <v>194</v>
+      </c>
+      <c r="G60" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>66</v>
+      </c>
+      <c r="B61" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61">
+        <v>1149</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62">
+        <v>529</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>174</v>
+      </c>
+      <c r="F62" t="s">
+        <v>194</v>
+      </c>
+      <c r="G62" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63">
+        <v>355</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>174</v>
+      </c>
+      <c r="F63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64">
+        <v>263</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>174</v>
+      </c>
+      <c r="F64" t="s">
+        <v>194</v>
+      </c>
+      <c r="G64" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>173</v>
+      </c>
+      <c r="F65" t="s">
+        <v>173</v>
+      </c>
+      <c r="G65" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>145</v>
+      </c>
+      <c r="C66">
+        <v>113</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>173</v>
+      </c>
+      <c r="F66" t="s">
+        <v>173</v>
+      </c>
+      <c r="G66" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>146</v>
+      </c>
+      <c r="C67">
+        <v>266</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>173</v>
+      </c>
+      <c r="F67" t="s">
+        <v>173</v>
+      </c>
+      <c r="G67" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68">
+        <v>229</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>173</v>
+      </c>
+      <c r="F68" t="s">
+        <v>173</v>
+      </c>
+      <c r="G68" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>148</v>
+      </c>
+      <c r="C69">
+        <v>113</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>174</v>
+      </c>
+      <c r="F69" t="s">
+        <v>194</v>
+      </c>
+      <c r="G69" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>586</v>
+      </c>
+      <c r="E70" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" t="s">
+        <v>177</v>
+      </c>
+      <c r="G70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71">
         <v>120</v>
       </c>
-      <c r="D41">
+      <c r="D71">
         <v>466</v>
       </c>
-      <c r="E41" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G41" t="s">
-        <v>161</v>
+      <c r="E71" t="s">
+        <v>175</v>
+      </c>
+      <c r="F71" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72">
+        <v>20</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
+        <v>173</v>
+      </c>
+      <c r="F72" t="s">
+        <v>173</v>
+      </c>
+      <c r="G72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73">
+        <v>20</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>173</v>
+      </c>
+      <c r="F73" t="s">
+        <v>173</v>
+      </c>
+      <c r="G73" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>173</v>
+      </c>
+      <c r="F74" t="s">
+        <v>173</v>
+      </c>
+      <c r="G74" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>173</v>
+      </c>
+      <c r="F75" t="s">
+        <v>173</v>
+      </c>
+      <c r="G75" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
